--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3595D929-648B-E548-93C4-75A384EEC0D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="440" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
+    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -36,7 +37,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,42 +50,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nexial.scope.fallbackToPrevious</t>
+  </si>
+  <si>
+    <t>nexial.pollWaitMs</t>
+  </si>
+  <si>
+    <t>nexial.failFast</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>nexial.verbose</t>
+  </si>
+  <si>
+    <t>nexial.openResult</t>
+  </si>
+  <si>
+    <t>aut : url</t>
+  </si>
+  <si>
+    <t>aut : title</t>
+  </si>
+  <si>
+    <t>"Hello, World!" program - Wikipedia</t>
+  </si>
+  <si>
+    <t>aut : copyRight</t>
+  </si>
+  <si>
+    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
+  </si>
+  <si>
+    <t>aut : keyword</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>newline : url</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Newline</t>
+  </si>
+  <si>
+    <t>Newline - Wikipedia</t>
+  </si>
+  <si>
+    <t>newline : title</t>
+  </si>
+  <si>
+    <t>newline : excerpt</t>
+  </si>
+  <si>
+    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>nexial.scope.iteration</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>nexial.scope.fallbackToPrevious</t>
-  </si>
-  <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>nexial.openResult</t>
+    <t>//nexial.browser</t>
+  </si>
+  <si>
+    <t>//nexial.highlightWaitMs</t>
+  </si>
+  <si>
+    <t>//nexial.highlight</t>
   </si>
 </sst>
 </file>
@@ -213,7 +271,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -568,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA10"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -585,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -595,37 +718,37 @@
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -635,17 +758,17 @@
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -654,6 +777,12 @@
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
@@ -661,9 +790,138 @@
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361E04EC-E653-944B-AF20-C30E7C72A226}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CBF2A-1262-6A44-8909-CD1337361B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="440" windowWidth="25600" windowHeight="7840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="10480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
-    <sheet name="hello-world" sheetId="3" r:id="rId2"/>
+    <sheet name="dnd" sheetId="3" r:id="rId2"/>
+    <sheet name="hello-world (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>true</t>
   </si>
@@ -139,10 +140,91 @@
     <t>//nexial.browser</t>
   </si>
   <si>
-    <t>//nexial.highlightWaitMs</t>
-  </si>
-  <si>
-    <t>//nexial.highlight</t>
+    <t>http://demoqa.com/droppable/</t>
+  </si>
+  <si>
+    <t>id=draggableview</t>
+  </si>
+  <si>
+    <t>id=droppableview</t>
+  </si>
+  <si>
+    <t>nexial.highlight</t>
+  </si>
+  <si>
+    <t>nexial.highlightWaitMs</t>
+  </si>
+  <si>
+    <t>app1.url</t>
+  </si>
+  <si>
+    <t>app1.dnd.source.loc</t>
+  </si>
+  <si>
+    <t>app1.dnd.target.loc</t>
+  </si>
+  <si>
+    <t>app2.url</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/test/drag_drop.html</t>
+  </si>
+  <si>
+    <t>id=credit2</t>
+  </si>
+  <si>
+    <t>app2.dnd1.source.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd1.target.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd2.source.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd2.target.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd3.source.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd3.target.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd4.source.loc</t>
+  </si>
+  <si>
+    <t>app2.dnd4.target.loc</t>
+  </si>
+  <si>
+    <t>css=#bank li</t>
+  </si>
+  <si>
+    <t>id=fourth</t>
+  </si>
+  <si>
+    <t>css=#amt7 li</t>
+  </si>
+  <si>
+    <t>css=#loan li</t>
+  </si>
+  <si>
+    <t>css=#amt8 li</t>
+  </si>
+  <si>
+    <t>id=credit1</t>
+  </si>
+  <si>
+    <t>app2.result.loc</t>
+  </si>
+  <si>
+    <t>app2.result.expected</t>
+  </si>
+  <si>
+    <t>Perfect!</t>
+  </si>
+  <si>
+    <t>css=#equal a</t>
   </si>
 </sst>
 </file>
@@ -271,7 +353,72 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -693,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -761,14 +908,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -778,7 +925,7 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -793,21 +940,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -818,6 +965,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
+  <dimension ref="A1:AAA14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E04F9B9-C1B5-4847-B494-91ACF2D91B14}">
   <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CBF2A-1262-6A44-8909-CD1337361B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF91364-8AF1-9D4B-ADF5-21981905BDF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="10480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,7 @@
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -967,13 +968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
   <dimension ref="A1:AAA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF91364-8AF1-9D4B-ADF5-21981905BDF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D05EBD-2D21-1B45-92F9-428813D13CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="10480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="dnd" sheetId="3" r:id="rId2"/>
-    <sheet name="hello-world (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="alert" sheetId="4" r:id="rId3"/>
+    <sheet name="keys" sheetId="8" r:id="rId4"/>
+    <sheet name="frames" sheetId="5" r:id="rId5"/>
+    <sheet name="cookies" sheetId="6" r:id="rId6"/>
+    <sheet name="local-storage" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -39,7 +43,6 @@
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
   <si>
     <t>true</t>
   </si>
@@ -81,66 +84,9 @@
     <t>nexial.openResult</t>
   </si>
   <si>
-    <t>aut : url</t>
-  </si>
-  <si>
-    <t>aut : title</t>
-  </si>
-  <si>
-    <t>"Hello, World!" program - Wikipedia</t>
-  </si>
-  <si>
-    <t>aut : copyRight</t>
-  </si>
-  <si>
-    <t>Text is available under the Creative Commons Attribution-ShareAlike License; additional terms may apply.</t>
-  </si>
-  <si>
-    <t>aut : keyword</t>
-  </si>
-  <si>
-    <t>Hello World</t>
-  </si>
-  <si>
-    <t>newline : url</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Newline</t>
-  </si>
-  <si>
-    <t>Newline - Wikipedia</t>
-  </si>
-  <si>
-    <t>newline : title</t>
-  </si>
-  <si>
-    <t>newline : excerpt</t>
-  </si>
-  <si>
-    <t>U+2424 (SYMBOL FOR NEWLINE, ␤), U+23CE (RETURN SYMBOL, ⏎), U+240D (SYMBOL FOR CARRIAGE RETURN, ␍) and U+240A (SYMBOL FOR LINE FEED, ␊)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/%22Hello,_World!%22_program</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
-    <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>//nexial.browser</t>
-  </si>
-  <si>
     <t>http://demoqa.com/droppable/</t>
   </si>
   <si>
@@ -226,6 +172,252 @@
   </si>
   <si>
     <t>css=#equal a</t>
+  </si>
+  <si>
+    <t>example1:url</t>
+  </si>
+  <si>
+    <t>https://www.quackit.com/javascript/javascript_alert_box.cfm</t>
+  </si>
+  <si>
+    <t>example1:alert1:loc</t>
+  </si>
+  <si>
+    <t>example1:title1:loc</t>
+  </si>
+  <si>
+    <t>//h2[string(.) = 'JavaScript Alert: onClick']</t>
+  </si>
+  <si>
+    <t>example1:alert1:content</t>
+  </si>
+  <si>
+    <t>css=input[type='button'][value='Click me']</t>
+  </si>
+  <si>
+    <t>name=result1</t>
+  </si>
+  <si>
+    <t>example1:window1:loc</t>
+  </si>
+  <si>
+    <t>Thanks... I feel much better now!</t>
+  </si>
+  <si>
+    <t>example2:link:loc</t>
+  </si>
+  <si>
+    <t>//a[string(.) = 'View Example']</t>
+  </si>
+  <si>
+    <t>example2:popup:name</t>
+  </si>
+  <si>
+    <t>popUpWindow</t>
+  </si>
+  <si>
+    <t>eg1.url</t>
+  </si>
+  <si>
+    <t>http://way2automation.com/way2auto_jquery/index.php</t>
+  </si>
+  <si>
+    <t>eg1.form-title.loc</t>
+  </si>
+  <si>
+    <t>css=#load_box h3</t>
+  </si>
+  <si>
+    <t>eg1.form-title.text</t>
+  </si>
+  <si>
+    <t>eg1.form-name.loc</t>
+  </si>
+  <si>
+    <t>name=name</t>
+  </si>
+  <si>
+    <t>eg1.form-phone.loc</t>
+  </si>
+  <si>
+    <t>name=phone</t>
+  </si>
+  <si>
+    <t>eg1.form-email.loc</t>
+  </si>
+  <si>
+    <t>name=email</t>
+  </si>
+  <si>
+    <t>eg1.form-username.loc</t>
+  </si>
+  <si>
+    <t>nexial.web.pageLoadWaitMs</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>REGISTRATION FORM</t>
+  </si>
+  <si>
+    <t>css=#load_box #load_form input[name="username"]</t>
+  </si>
+  <si>
+    <t>eg2.url</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/</t>
+  </si>
+  <si>
+    <t>eg2.hotel-input.loc</t>
+  </si>
+  <si>
+    <t>eg2.hotel-input.first</t>
+  </si>
+  <si>
+    <t>eg2.hotel-input.second</t>
+  </si>
+  <si>
+    <t>eg2.hotel-result.loc</t>
+  </si>
+  <si>
+    <t>San Francisco, United States</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>eg2.footer.loc</t>
+  </si>
+  <si>
+    <t>css=body &gt; .hidden-sm &gt; .container &gt; .text-center</t>
+  </si>
+  <si>
+    <t>eg2.footer.text</t>
+  </si>
+  <si>
+    <t>Powered by PHPTRAVELS</t>
+  </si>
+  <si>
+    <t>eg2.nav.loc</t>
+  </si>
+  <si>
+    <t>css=nav.navbar</t>
+  </si>
+  <si>
+    <t>eg2.hotel-prompt.loc</t>
+  </si>
+  <si>
+    <t>examples to run</t>
+  </si>
+  <si>
+    <t>Example 2</t>
+  </si>
+  <si>
+    <t>css=.select2-container a</t>
+  </si>
+  <si>
+    <t>css=#select2-drop input.select2-input</t>
+  </si>
+  <si>
+    <t>css=.select2-results ul.select2-result-sub &gt; li &gt; div</t>
+  </si>
+  <si>
+    <t>San Fernando, Spain|San Fernando De Apure, Venezuela|San Fernando, Phillipines|San Felipe, Mexico|San Fernando, United States|San Felix, Venezuela|San Felipe, Venezuela|San Felipe, Colombia|San Francisco, United States</t>
+  </si>
+  <si>
+    <t>san f</t>
+  </si>
+  <si>
+    <t>{END}{r}{a}{n}</t>
+  </si>
+  <si>
+    <t>eg2.hotel-input.results1</t>
+  </si>
+  <si>
+    <t>eg2.hotel-input.results2</t>
+  </si>
+  <si>
+    <t>example3:url</t>
+  </si>
+  <si>
+    <t>https://javascript.info/alert-prompt-confirm</t>
+  </si>
+  <si>
+    <t>example3:sectionTitle:loc</t>
+  </si>
+  <si>
+    <t>example3:run:loc</t>
+  </si>
+  <si>
+    <t>//h2[string(.) = 'confirm']//following-sibling::div[@class='code-example']//a[@title='run']</t>
+  </si>
+  <si>
+    <t>example3:confirm:text</t>
+  </si>
+  <si>
+    <t>Are you the boss</t>
+  </si>
+  <si>
+    <t>example4:sectionTitle:loc</t>
+  </si>
+  <si>
+    <t>//a[@class='main__anchor' and string(.) = 'prompt']</t>
+  </si>
+  <si>
+    <t>//a[@class='main__anchor' and string(.) = 'confirm']</t>
+  </si>
+  <si>
+    <t>example4:run:loc</t>
+  </si>
+  <si>
+    <t>//h2[string(.) = 'prompt']//following-sibling::div[@class='code-example']//a[@title='run']</t>
+  </si>
+  <si>
+    <t>https://html.com/tags/iframe/</t>
+  </si>
+  <si>
+    <t>eg1.frames.count</t>
+  </si>
+  <si>
+    <t>eg1.frame1.loc</t>
+  </si>
+  <si>
+    <t>eg1.video.loc</t>
+  </si>
+  <si>
+    <t>eg1.sectionTitle.loc</t>
+  </si>
+  <si>
+    <t>id=Code_Example</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>//iframe[1]</t>
+  </si>
+  <si>
+    <t>//body//div[@id='player']</t>
+  </si>
+  <si>
+    <t>eg1.browserImages.loc</t>
+  </si>
+  <si>
+    <t>https://javascript.info/popup-windows</t>
+  </si>
+  <si>
+    <t>//h2[string(.) = 'Popup blocking']//following-sibling::div[@class='code-example']//a[@title='run']</t>
+  </si>
+  <si>
+    <t>eg2.run.loc</t>
+  </si>
+  <si>
+    <t>css=.browser-support img</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -354,7 +546,267 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -842,7 +1294,7 @@
   <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -869,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
@@ -916,7 +1368,7 @@
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -926,10 +1378,10 @@
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
@@ -941,21 +1393,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="34" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="33" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -966,9 +1418,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
-  <dimension ref="A1:AAA14"/>
+  <dimension ref="A1:AAA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -981,152 +1435,162 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="HA3" s="4"/>
-      <c r="AAA3" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
     <row r="10" spans="1:703">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
     </row>
     <row r="11" spans="1:703">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:703">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1137,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E04F9B9-C1B5-4847-B494-91ACF2D91B14}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA13"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A2" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1154,91 +1618,641 @@
   <sheetData>
     <row r="1" spans="1:703">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="24" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="23" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="22" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="20" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3A09A6-62CA-EF47-B7BF-AB4F066C369B}">
+  <dimension ref="A1:AAA21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="HA4" s="6"/>
+      <c r="AAA4" s="6"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="HA11" s="4"/>
+      <c r="AAA11" s="5"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5690AD-488F-1F47-9AB1-50DB8F283308}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA7A05-80CF-C147-8A4F-EA87E1B0539F}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="209:703">
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="209:703">
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="209:703">
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="209:703">
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="209:703">
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="209:703">
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="209:703">
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="209:703">
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="209:703">
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D85C08F-DE12-CC4B-A1D6-36C14DE98132}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="209:703">
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="209:703">
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="209:703">
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="209:703">
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="209:703">
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="209:703">
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="209:703">
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="209:703">
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="209:703">
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D05EBD-2D21-1B45-92F9-428813D13CFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11237F16-F010-1E4C-B0EC-DD30D7B1D7C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="10480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="10480" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="keys" sheetId="8" r:id="rId4"/>
     <sheet name="frames" sheetId="5" r:id="rId5"/>
     <sheet name="cookies" sheetId="6" r:id="rId6"/>
-    <sheet name="local-storage" sheetId="7" r:id="rId7"/>
+    <sheet name="register-phptravels" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
   <si>
     <t>true</t>
   </si>
@@ -418,6 +418,138 @@
   </si>
   <si>
     <t>500</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>12345trewq</t>
+  </si>
+  <si>
+    <t>login url</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/login</t>
+  </si>
+  <si>
+    <t>login form</t>
+  </si>
+  <si>
+    <t>css=form#loginfrm</t>
+  </si>
+  <si>
+    <t>session cookie name</t>
+  </si>
+  <si>
+    <t>ci_session</t>
+  </si>
+  <si>
+    <t>nexial.inspectOnPause</t>
+  </si>
+  <si>
+    <t>username loc</t>
+  </si>
+  <si>
+    <t>name=username</t>
+  </si>
+  <si>
+    <t>password loc</t>
+  </si>
+  <si>
+    <t>name=password</t>
+  </si>
+  <si>
+    <t>disney@fox.net</t>
+  </si>
+  <si>
+    <t>greeting loc</t>
+  </si>
+  <si>
+    <t>dropdown loc</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>//h3[text()='Hi, ${first name} ${last name}']</t>
+  </si>
+  <si>
+    <t>//a[contains(@class,'dropdown-toggle')][normalize-space(string(.))='${first name}']</t>
+  </si>
+  <si>
+    <t>dropdown-account loc</t>
+  </si>
+  <si>
+    <t>//ul[@class='dropdown-menu']//a[normalize-space(string(.))='Account']</t>
+  </si>
+  <si>
+    <t>dropdown-logout loc</t>
+  </si>
+  <si>
+    <t>//ul[@class='dropdown-menu']//a[normalize-space(string(.))='Logout']</t>
+  </si>
+  <si>
+    <t>login button loc</t>
+  </si>
+  <si>
+    <t>css=button.loginbtn</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net/register</t>
+  </si>
+  <si>
+    <t>registration url</t>
+  </si>
+  <si>
+    <t>first name loc</t>
+  </si>
+  <si>
+    <t>name=firstname</t>
+  </si>
+  <si>
+    <t>last name loc</t>
+  </si>
+  <si>
+    <t>mobile number loc</t>
+  </si>
+  <si>
+    <t>email loc</t>
+  </si>
+  <si>
+    <t>confirm password loc</t>
+  </si>
+  <si>
+    <t>sign up loc</t>
+  </si>
+  <si>
+    <t>name=lastname</t>
+  </si>
+  <si>
+    <t>name=confirmpassword</t>
+  </si>
+  <si>
+    <t>css=button.signupbtn</t>
+  </si>
+  <si>
+    <t>213-555-1212</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1426,7 @@
   <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1420,7 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
   <dimension ref="A1:AAA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2126,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA7A05-80CF-C147-8A4F-EA87E1B0539F}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA15"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2141,41 +2273,145 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="209:703">
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="209:703">
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="209:703">
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="209:703">
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="209:703">
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="209:703">
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="209:703">
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="209:703">
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="209:703">
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
@@ -2204,11 +2440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D85C08F-DE12-CC4B-A1D6-36C14DE98132}">
-  <dimension ref="A1:AAA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7197F08B-A244-D648-AC5A-19D8FB000A3D}">
+  <dimension ref="A1:AAA13"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A4" zoomScale="184" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2220,41 +2456,129 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="209:703">
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="209:703">
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="209:703">
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="209:703">
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="209:703">
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="209:703">
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="209:703">
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="209:703">
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="209:703">
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11237F16-F010-1E4C-B0EC-DD30D7B1D7C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494511DE-6253-C244-945B-A55917BE76BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="10480" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="7460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
   <dimension ref="A1:AAA15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2260,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA7A05-80CF-C147-8A4F-EA87E1B0539F}">
   <dimension ref="A1:AAA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494511DE-6253-C244-945B-A55917BE76BE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9106A96-6DDD-B147-B3EB-2F62B685F945}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="7460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="13880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="dnd" sheetId="3" r:id="rId2"/>
     <sheet name="alert" sheetId="4" r:id="rId3"/>
     <sheet name="keys" sheetId="8" r:id="rId4"/>
-    <sheet name="frames" sheetId="5" r:id="rId5"/>
-    <sheet name="cookies" sheetId="6" r:id="rId6"/>
-    <sheet name="register-phptravels" sheetId="9" r:id="rId7"/>
+    <sheet name="select" sheetId="10" r:id="rId5"/>
+    <sheet name="frames" sheetId="5" r:id="rId6"/>
+    <sheet name="cookies" sheetId="6" r:id="rId7"/>
+    <sheet name="register-phptravels" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -42,7 +43,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="199">
   <si>
     <t>true</t>
   </si>
@@ -550,6 +551,108 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>site1.url</t>
+  </si>
+  <si>
+    <t>https://html.com/tags/select/</t>
+  </si>
+  <si>
+    <t>css=.render select</t>
+  </si>
+  <si>
+    <t>select.loc</t>
+  </si>
+  <si>
+    <t>select.text1</t>
+  </si>
+  <si>
+    <t>Greater flamingo</t>
+  </si>
+  <si>
+    <t>select.text2</t>
+  </si>
+  <si>
+    <t>select.text3</t>
+  </si>
+  <si>
+    <t>select.expected1</t>
+  </si>
+  <si>
+    <t>select.expected2</t>
+  </si>
+  <si>
+    <t>select.expected3</t>
+  </si>
+  <si>
+    <t>American flamingo</t>
+  </si>
+  <si>
+    <t>Andean flamingo</t>
+  </si>
+  <si>
+    <t>site2.url</t>
+  </si>
+  <si>
+    <t>https://html.com/attributes/select-multiple/</t>
+  </si>
+  <si>
+    <t>select.text4</t>
+  </si>
+  <si>
+    <t>select.expected4</t>
+  </si>
+  <si>
+    <t>${select.text1}</t>
+  </si>
+  <si>
+    <t>select.text5</t>
+  </si>
+  <si>
+    <t>${select.text2}</t>
+  </si>
+  <si>
+    <t>select.text6</t>
+  </si>
+  <si>
+    <t>${select.text1},Lesser flamingo</t>
+  </si>
+  <si>
+    <t>selectedOption.loc</t>
+  </si>
+  <si>
+    <t>${select.loc} option:checked</t>
+  </si>
+  <si>
+    <t>select.expected5</t>
+  </si>
+  <si>
+    <t>nexial.browser</t>
+  </si>
+  <si>
+    <t>REGEX:.+flamingo</t>
+  </si>
+  <si>
+    <t>REGEX:.+ean f.+</t>
+  </si>
+  <si>
+    <t>REGEX:.+er fla.+</t>
+  </si>
+  <si>
+    <t>${select.expected3},Chilean flamingo</t>
+  </si>
+  <si>
+    <t>select.expected6</t>
+  </si>
+  <si>
+    <t>${select.expected2},${select.expected4},${select.expected1},James's flamingo,Lesser flamingo</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
@@ -678,7 +781,425 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1525,21 +2046,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="34" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="66" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="65" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="30" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1552,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
   <dimension ref="A1:AAA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1708,21 +2229,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="29" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="61" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="60" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1873,21 +2394,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="24" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="56" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="55" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="54" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2106,21 +2627,21 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="51" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="50" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="5">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2130,6 +2651,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1856400-C424-9843-9DB5-30B2DDC74D6F}">
+  <dimension ref="A1:AAA19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="HA4" s="6"/>
+      <c r="AAA4" s="6"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="HA5" s="6"/>
+      <c r="AAA5" s="6"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+    <row r="11" spans="1:703">
+      <c r="A11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="HA11" s="4"/>
+      <c r="AAA11" s="5"/>
+    </row>
+    <row r="12" spans="1:703">
+      <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="HA12" s="4"/>
+      <c r="AAA12" s="5"/>
+    </row>
+    <row r="13" spans="1:703">
+      <c r="A13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703">
+      <c r="A14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703">
+      <c r="A15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703">
+      <c r="A16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A6 A19:A1048576 A11:A14">
+    <cfRule type="beginsWith" dxfId="46" priority="28" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="45" priority="29" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="44" priority="30" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B6 B19:B1048576 B11:B12 B14">
+    <cfRule type="expression" dxfId="43" priority="31" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="42" priority="32">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:A18">
+    <cfRule type="beginsWith" dxfId="41" priority="23" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A15,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="40" priority="24" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A15,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="39" priority="25" stopIfTrue="1">
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B18">
+    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="37" priority="27">
+      <formula>LEN(TRIM(B15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="beginsWith" dxfId="36" priority="18" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A7,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="35" priority="19" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A7,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="34" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="32" priority="22">
+      <formula>LEN(TRIM(B7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="beginsWith" dxfId="31" priority="13" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A8,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="30" priority="14" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A8,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="29" priority="15" stopIfTrue="1">
+      <formula>LEN(TRIM(A8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="28" priority="16" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="27" priority="17">
+      <formula>LEN(TRIM(B8))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="beginsWith" dxfId="26" priority="8" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A9,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="9" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A9,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="24" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="22" priority="12">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A10,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A10,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="19" priority="5" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="7">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="2">
+      <formula>LEN(TRIM(B13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5690AD-488F-1F47-9AB1-50DB8F283308}">
   <dimension ref="A1:AAA9"/>
   <sheetViews>
@@ -2256,7 +3099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA7A05-80CF-C147-8A4F-EA87E1B0539F}">
   <dimension ref="A1:AAA15"/>
   <sheetViews>
@@ -2439,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7197F08B-A244-D648-AC5A-19D8FB000A3D}">
   <dimension ref="A1:AAA13"/>
   <sheetViews>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9106A96-6DDD-B147-B3EB-2F62B685F945}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B74F7-CAB8-E149-B79B-6491E60D7FED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="13880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="13880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2421,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3A09A6-62CA-EF47-B7BF-AB4F066C369B}">
   <dimension ref="A1:AAA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2654,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1856400-C424-9843-9DB5-30B2DDC74D6F}">
   <dimension ref="A1:AAA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/artifact/data/web-04.data.xlsx
+++ b/artifact/data/web-04.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745B74F7-CAB8-E149-B79B-6491E60D7FED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F537DC65-9DBA-8D42-9A9A-22B9301ECF22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="13880" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36720" windowHeight="22820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="196">
   <si>
     <t>true</t>
   </si>
@@ -73,16 +73,7 @@
     <t>nexial.pollWaitMs</t>
   </si>
   <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
     <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
-  </si>
-  <si>
-    <t>nexial.openResult</t>
   </si>
   <si>
     <t>250</t>
@@ -1944,11 +1935,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA46"/>
   <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -1959,7 +1948,7 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1969,80 +1958,81 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
+    <row r="6" spans="1:703" ht="23" customHeight="1"/>
+    <row r="7" spans="1:703" ht="23" customHeight="1"/>
+    <row r="8" spans="1:703" ht="23" customHeight="1"/>
+    <row r="9" spans="1:703" ht="23" customHeight="1"/>
+    <row r="10" spans="1:703" ht="23" customHeight="1"/>
+    <row r="11" spans="1:703" ht="23" customHeight="1"/>
+    <row r="12" spans="1:703" ht="23" customHeight="1"/>
+    <row r="13" spans="1:703" ht="23" customHeight="1"/>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2071,11 +2061,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02992098-561F-1944-A340-34CB95735B3B}">
-  <dimension ref="A1:AAA15"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2086,9 +2074,9 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2096,136 +2084,171 @@
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:703">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
+    <row r="48" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2254,11 +2277,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E04F9B9-C1B5-4847-B494-91ACF2D91B14}">
-  <dimension ref="A1:AAA13"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2269,128 +2290,165 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:703" ht="23" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
+    <row r="48" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2419,11 +2477,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3A09A6-62CA-EF47-B7BF-AB4F066C369B}">
-  <dimension ref="A1:AAA21"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2434,196 +2490,225 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="HA11" s="4"/>
       <c r="AAA11" s="5"/>
     </row>
-    <row r="12" spans="1:703">
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="23" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" ht="23" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="23" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="23" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
+    <row r="22" spans="1:2" ht="23" customHeight="1"/>
+    <row r="23" spans="1:2" ht="23" customHeight="1"/>
+    <row r="24" spans="1:2" ht="23" customHeight="1"/>
+    <row r="25" spans="1:2" ht="23" customHeight="1"/>
+    <row r="26" spans="1:2" ht="23" customHeight="1"/>
+    <row r="27" spans="1:2" ht="23" customHeight="1"/>
+    <row r="28" spans="1:2" ht="23" customHeight="1"/>
+    <row r="29" spans="1:2" ht="23" customHeight="1"/>
+    <row r="30" spans="1:2" ht="23" customHeight="1"/>
+    <row r="31" spans="1:2" ht="23" customHeight="1"/>
+    <row r="32" spans="1:2" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
+    <row r="45" ht="23" customHeight="1"/>
+    <row r="46" ht="23" customHeight="1"/>
+    <row r="47" ht="23" customHeight="1"/>
+    <row r="48" ht="23" customHeight="1"/>
+    <row r="49" ht="23" customHeight="1"/>
+    <row r="50" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -2652,11 +2737,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1856400-C424-9843-9DB5-30B2DDC74D6F}">
-  <dimension ref="A1:AAA19"/>
+  <dimension ref="A1:AAA50"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="159" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -2667,19 +2750,19 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2687,162 +2770,193 @@
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="HA3" s="6"/>
       <c r="AAA3" s="6"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="24" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="6"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="24" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="6"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="24" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="24" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="24" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="24" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="24" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="24" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="HA11" s="4"/>
       <c r="AAA11" s="5"/>
     </row>
-    <row r="12" spans="1:703">
+    <row r="12" spans="1:703" ht="24" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="HA12" s="4"/>
       <c r="AAA12" s="5"/>
     </row>
-    <row r="13" spans="1:703">
+    <row r="13" spans="1:703" ht="24" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="24" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:703" ht="24" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:703" ht="24" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="24" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="24" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:703">
-      <c r="A16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="24" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:2" ht="24" customHeight="1"/>
+    <row r="21" spans="1:2" ht="24" customHeight="1"/>
+    <row r="22" spans="1:2" ht="24" customHeight="1"/>
+    <row r="23" spans="1:2" ht="24" customHeight="1"/>
+    <row r="24" spans="1:2" ht="24" customHeight="1"/>
+    <row r="25" spans="1:2" ht="24" customHeight="1"/>
+    <row r="26" spans="1:2" ht="24" customHeight="1"/>
+    <row r="27" spans="1:2" ht="24" customHeight="1"/>
+    <row r="28" spans="1:2" ht="24" customHeight="1"/>
+    <row r="29" spans="1:2" ht="24" customHeight="1"/>
+    <row r="30" spans="1:2" ht="24" customHeight="1"/>
+    <row r="31" spans="1:2" ht="24" customHeight="1"/>
+    <row r="32" spans="1:2" ht="24" customHeight="1"/>
+    <row r="33" ht="24" customHeight="1"/>
+    <row r="34" ht="24" customHeight="1"/>
+    <row r="35" ht="24" customHeight="1"/>
+    <row r="36" ht="24" customHeight="1"/>
+    <row r="37" ht="24" customHeight="1"/>
+    <row r="38" ht="24" customHeight="1"/>
+    <row r="39" ht="24" customHeight="1"/>
+    <row r="40" ht="24" customHeight="1"/>
+    <row r="41" ht="24" customHeight="1"/>
+    <row r="42" ht="24" customHeight="1"/>
+    <row r="43" ht="24" customHeight="1"/>
+    <row r="44" ht="24" customHeight="1"/>
+    <row r="45" ht="24" customHeight="1"/>
+    <row r="46" ht="24" customHeight="1"/>
+    <row r="47" ht="24" customHeight="1"/>
+    <row r="48" ht="24" customHeight="1"/>
+    <row r="49" ht="24" customHeight="1"/>
+    <row r="50" ht="24" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A6 A19:A1048576 A11:A14">
@@ -2974,105 +3088,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5690AD-488F-1F47-9AB1-50DB8F283308}">
-  <dimension ref="A1:AAA9"/>
+  <dimension ref="A1:AAA44"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35.6640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
     <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
+    <row r="10" spans="1:703" ht="23" customHeight="1"/>
+    <row r="11" spans="1:703" ht="23" customHeight="1"/>
+    <row r="12" spans="1:703" ht="23" customHeight="1"/>
+    <row r="13" spans="1:703" ht="23" customHeight="1"/>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
+    <row r="31" ht="23" customHeight="1"/>
+    <row r="32" ht="23" customHeight="1"/>
+    <row r="33" ht="23" customHeight="1"/>
+    <row r="34" ht="23" customHeight="1"/>
+    <row r="35" ht="23" customHeight="1"/>
+    <row r="36" ht="23" customHeight="1"/>
+    <row r="37" ht="23" customHeight="1"/>
+    <row r="38" ht="23" customHeight="1"/>
+    <row r="39" ht="23" customHeight="1"/>
+    <row r="40" ht="23" customHeight="1"/>
+    <row r="41" ht="23" customHeight="1"/>
+    <row r="42" ht="23" customHeight="1"/>
+    <row r="43" ht="23" customHeight="1"/>
+    <row r="44" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -3101,11 +3248,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCA7A05-80CF-C147-8A4F-EA87E1B0539F}">
-  <dimension ref="A1:AAA15"/>
+  <dimension ref="A1:AAA30"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -3116,59 +3261,59 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -3176,86 +3321,101 @@
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:703">
-      <c r="A12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:703" ht="23" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:703" ht="23" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:703">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:703">
-      <c r="A15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
+    <row r="30" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
@@ -3284,11 +3444,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7197F08B-A244-D648-AC5A-19D8FB000A3D}">
-  <dimension ref="A1:AAA13"/>
+  <dimension ref="A1:AAA29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="184" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -3299,130 +3457,146 @@
     <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:703">
+    <row r="1" spans="1:703" ht="23" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
-    <row r="2" spans="1:703">
+    <row r="2" spans="1:703" ht="23" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
-    <row r="3" spans="1:703">
+    <row r="3" spans="1:703" ht="23" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="HA3" s="4"/>
       <c r="AAA3" s="5"/>
     </row>
-    <row r="4" spans="1:703">
+    <row r="4" spans="1:703" ht="23" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
-    <row r="5" spans="1:703">
+    <row r="5" spans="1:703" ht="23" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
-    <row r="6" spans="1:703">
+    <row r="6" spans="1:703" ht="23" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
-    <row r="7" spans="1:703">
+    <row r="7" spans="1:703" ht="23" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
-    <row r="8" spans="1:703">
+    <row r="8" spans="1:703" ht="23" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
-    <row r="9" spans="1:703">
+    <row r="9" spans="1:703" ht="23" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
     </row>
-    <row r="10" spans="1:703">
+    <row r="10" spans="1:703" ht="23" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="HA10" s="4"/>
       <c r="AAA10" s="5"/>
     </row>
-    <row r="11" spans="1:703">
+    <row r="11" spans="1:703" ht="23" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:703" ht="23" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:703">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:703" ht="23" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:703" ht="23" customHeight="1"/>
+    <row r="15" spans="1:703" ht="23" customHeight="1"/>
+    <row r="16" spans="1:703" ht="23" customHeight="1"/>
+    <row r="17" ht="23" customHeight="1"/>
+    <row r="18" ht="23" customHeight="1"/>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
+    <row r="22" ht="23" customHeight="1"/>
+    <row r="23" ht="23" customHeight="1"/>
+    <row r="24" ht="23" customHeight="1"/>
+    <row r="25" ht="23" customHeight="1"/>
+    <row r="26" ht="23" customHeight="1"/>
+    <row r="27" ht="23" customHeight="1"/>
+    <row r="28" ht="23" customHeight="1"/>
+    <row r="29" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
